--- a/MBA/图.xlsx
+++ b/MBA/图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>管理</t>
   </si>
@@ -41,18 +41,51 @@
   <si>
     <t>研发</t>
   </si>
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>25以下</t>
+  </si>
+  <si>
+    <t>26-30岁</t>
+  </si>
+  <si>
+    <t>31岁-35岁</t>
+  </si>
+  <si>
+    <t>35-40岁</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>1 人</t>
+  </si>
+  <si>
+    <t>15 人</t>
+  </si>
+  <si>
+    <t>16 人</t>
+  </si>
+  <si>
+    <t>33 人</t>
+  </si>
+  <si>
+    <t>所占比例</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,14 +102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,20 +110,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +124,94 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,7 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,80 +239,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,13 +254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,49 +272,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,85 +302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +326,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +392,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,21 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -463,24 +474,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,11 +500,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,11 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,159 +565,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1249,480 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>软件公司研发部门人员年龄结构图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>所占比例</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:explosion val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0479457033147273"/>
+                  <c:y val="0.144446367207668"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0341984913669675"/>
+                  <c:y val="0.173166997097212"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$E$6:$H$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1 人</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15 人</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16 人</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1 人</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>25以下</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>26-30岁</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31岁-35岁</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>35-40岁</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.454545454545455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0303030303030303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="10000"/>
+          <a:lumOff val="90000"/>
+        </a:schemeClr>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1791,6 +2305,549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="256">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1814,6 +2871,41 @@
       <xdr:xfrm>
         <a:off x="5121275" y="2574925"/>
         <a:ext cx="5801995" cy="4322445"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662305</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5130800" y="2565400"/>
+        <a:ext cx="5799455" cy="3648075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2116,8 +3208,8 @@
   <sheetPr/>
   <dimension ref="E6:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2127,54 +3219,54 @@
   </cols>
   <sheetData>
     <row r="6" ht="14.25" spans="5:12">
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="5">
         <v>2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="5">
         <v>2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="5">
         <v>33</v>
       </c>
     </row>
@@ -2189,17 +3281,87 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="D6:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="9" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="14.25" spans="4:9">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9">
+      <c r="D7" s="6">
+        <v>42856</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="4:9">
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <f>1/33</f>
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="F8" s="7">
+        <f>15/33</f>
+        <v>0.454545454545455</v>
+      </c>
+      <c r="G8" s="7">
+        <f>16/33</f>
+        <v>0.484848484848485</v>
+      </c>
+      <c r="H8" s="7">
+        <f>1/33</f>
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/MBA/图.xlsx
+++ b/MBA/图.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="24135" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>管理</t>
   </si>
@@ -73,20 +74,160 @@
   </si>
   <si>
     <t>所占比例</t>
+  </si>
+  <si>
+    <t>调查维度</t>
+  </si>
+  <si>
+    <t>人数(单位:人)</t>
+  </si>
+  <si>
+    <t>统计均值</t>
+  </si>
+  <si>
+    <t>完全
+同意</t>
+  </si>
+  <si>
+    <t>基本
+同意</t>
+  </si>
+  <si>
+    <t>说不
+清</t>
+  </si>
+  <si>
+    <t>基本
+不同意</t>
+  </si>
+  <si>
+    <t>完全
+不同意</t>
+  </si>
+  <si>
+    <t>一、绩效计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1、我很清楚公司及部门的年度绩效目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3、我很清楚个人的年度绩效目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3、我认为公司、部门及个人的绩效目标设置的非常合理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4、我认为公司、部门及个人的绩效目标有很强的关联性</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5、我的个人绩效目标有很强的导向性，能帮助我找到工作的重点</t>
+  </si>
+  <si>
+    <t>二、绩效实施</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6、我认为公司和绩效相关的工作都能按计划推进并监控到位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7、公司会及时总结绩效管理中发现的问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8、公司会与员工探讨绩效的相关的内容并欢迎员工提出宝贵意见</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9、公司会安排时间对绩效相关的内容进行讲解并解答员工的疑问</t>
+  </si>
+  <si>
+    <t>三、绩效考核</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10、绩效考核的频率比较合理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11、绩效考核的内容设置非常合理能反映我的真实绩效水平</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12、我在考核中总是能得到客观公正的评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13、我的同事总能在考核中得到客观公正的评价</t>
+  </si>
+  <si>
+    <t>四、绩效反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14、考核结束后,上级领导会及时与我进行绩效反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15、我在绩效反馈中能知晓绩效考核的结果以及得到该考核结果的原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16、上级领导会在绩效反馈中对我工作的表现优异处进行表扬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17、上级领导会在绩效反馈中指出我工作表现不够优异之处</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18、上级领导会在反馈中对我下一阶段的工作进行指导、提出改进意见</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19、绩效反馈会对我的工作产生非常积极的影响</t>
+  </si>
+  <si>
+    <t>五、绩效结果的应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20、绩效考核的结果会很直接的影响工资待遇以及职位变化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21、我在绩效反馈中提的意见公司会很快的在后续流程中进行改进</t>
+  </si>
+  <si>
+    <t>绩效管理最不满意点</t>
+  </si>
+  <si>
+    <t>占比（%）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1、绩效沟通压力很大,领导的对我的批评很多</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2、一年的考评次数太多,内容重复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3、考评结果不够公正</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4、考评结果和工资待遇关联性不强</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5、制定绩效目标时参与感不够</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6、考核表格内容太多，要填很久</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -108,8 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,14 +266,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +289,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,14 +311,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -169,61 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,8 +341,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,7 +395,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,19 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,91 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,56 +579,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -463,11 +604,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,9 +633,59 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,30 +702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +744,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,153 +784,228 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1290,6 +1569,7 @@
               <a:rPr altLang="en-US"/>
               <a:t>软件公司研发部门人员年龄结构图</a:t>
             </a:r>
+            <a:endParaRPr altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1444,6 +1724,8 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -1465,6 +1747,8 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
@@ -3219,54 +3503,54 @@
   </cols>
   <sheetData>
     <row r="6" ht="14.25" spans="5:12">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="E7" s="5">
+      <c r="E7" s="29">
         <v>2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="29">
         <v>4</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="29">
         <v>5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="29">
         <v>10</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="29">
         <v>2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="29">
         <v>2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="29">
         <v>2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="29">
         <v>33</v>
       </c>
     </row>
@@ -3283,77 +3567,77 @@
   <sheetPr/>
   <dimension ref="D6:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="28" customWidth="1"/>
     <col min="5" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" ht="14.25" spans="4:9">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:9">
-      <c r="D7" s="6">
+      <c r="D7" s="31">
         <v>42856</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="4:9">
-      <c r="D8" s="7" t="s">
+    <row r="8" s="2" customFormat="1" spans="4:9">
+      <c r="D8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="32">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="32">
         <f>15/33</f>
         <v>0.454545454545455</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="32">
         <f>16/33</f>
         <v>0.484848484848485</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="32">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="32">
         <v>1</v>
       </c>
     </row>
@@ -3368,16 +3652,784 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="E3:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="36" style="8" customWidth="1"/>
+    <col min="6" max="10" width="6.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="27" spans="5:11">
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="5:11">
+      <c r="E4" s="13"/>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="5:11">
+      <c r="E5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23">
+        <f>SUM(K6:K10)/5</f>
+        <v>3.0969696969697</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="5:11">
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <f>(F6*5+G6*4+H6*3+I6*2+J6*1)/33</f>
+        <v>4.15151515151515</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="5:11">
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="25">
+        <f>(F7*5+G7*4+H7*3+I7*2+J7*1)/33</f>
+        <v>2.84848484848485</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="5:11">
+      <c r="E8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="25">
+        <f>(F8*5+G8*4+H8*3+I8*2+J8*1)/33</f>
+        <v>2.63636363636364</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="5:11">
+      <c r="E9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <f>(F9*5+G9*4+H9*3+I9*2+J9*1)/33</f>
+        <v>2.60606060606061</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="5:11">
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="25">
+        <f>(F10*5+G10*4+H10*3+I10*2+J10*1)/33</f>
+        <v>3.24242424242424</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="5:11">
+      <c r="E11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25">
+        <f>SUM(K12:K15)/4</f>
+        <v>3.24242424242424</v>
+      </c>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="5:11">
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="25">
+        <f>(F12*5+G12*4+H12*3+I12*2+J12*1)/33</f>
+        <v>3.96969696969697</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="5:11">
+      <c r="E13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
+        <v>4</v>
+      </c>
+      <c r="K13" s="25">
+        <f>(F13*5+G13*4+H13*3+I13*2+J13*1)/33</f>
+        <v>2.72727272727273</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="5:11">
+      <c r="E14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="25">
+        <f>(F14*5+G14*4+H14*3+I14*2+J14*1)/33</f>
+        <v>3.09090909090909</v>
+      </c>
+    </row>
+    <row r="15" ht="31" customHeight="1" spans="5:11">
+      <c r="E15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="25">
+        <f>(F15*5+G15*4+H15*3+I15*2+J15*1)/33</f>
+        <v>3.18181818181818</v>
+      </c>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="5:11">
+      <c r="E16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="25">
+        <f>SUM(K17:K20)/4</f>
+        <v>2.95454545454545</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" ref="K16:K30" si="0">(F17*5+G17*4+H17*3+I17*2+J17*1)/33</f>
+        <v>2.18181818181818</v>
+      </c>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="5:11">
+      <c r="E18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>7</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="0"/>
+        <v>3.18181818181818</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="5:11">
+      <c r="E19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="25">
+        <f t="shared" si="0"/>
+        <v>3.27272727272727</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="5:11">
+      <c r="E20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" si="0"/>
+        <v>3.18181818181818</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1" spans="5:11">
+      <c r="E21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25">
+        <f>SUM(K22:K27)/6</f>
+        <v>3.63131313131313</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="5:11">
+      <c r="E22" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <v>14</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" si="0"/>
+        <v>4.24242424242424</v>
+      </c>
+    </row>
+    <row r="23" ht="31" customHeight="1" spans="5:11">
+      <c r="E23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="3">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" si="0"/>
+        <v>4.12121212121212</v>
+      </c>
+    </row>
+    <row r="24" ht="29" customHeight="1" spans="5:11">
+      <c r="E24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
+        <v>12</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="0"/>
+        <v>2.81818181818182</v>
+      </c>
+    </row>
+    <row r="25" ht="29" customHeight="1" spans="5:11">
+      <c r="E25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="0"/>
+        <v>4.3030303030303</v>
+      </c>
+    </row>
+    <row r="26" ht="29" customHeight="1" spans="5:11">
+      <c r="E26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="0"/>
+        <v>3.39393939393939</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="5:11">
+      <c r="E27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>11</v>
+      </c>
+      <c r="I27" s="3">
+        <v>7</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="0"/>
+        <v>2.90909090909091</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="25">
+        <f>SUM(K29:K30)/2</f>
+        <v>2.92424242424242</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="5:11">
+      <c r="E29" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="16">
+        <v>4</v>
+      </c>
+      <c r="G29" s="16">
+        <v>4</v>
+      </c>
+      <c r="H29" s="16">
+        <v>13</v>
+      </c>
+      <c r="I29" s="16">
+        <v>10</v>
+      </c>
+      <c r="J29" s="16">
+        <v>2</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="0"/>
+        <v>2.93939393939394</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="5:11">
+      <c r="E30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="16">
+        <v>4</v>
+      </c>
+      <c r="G30" s="16">
+        <v>4</v>
+      </c>
+      <c r="H30" s="16">
+        <v>12</v>
+      </c>
+      <c r="I30" s="16">
+        <v>11</v>
+      </c>
+      <c r="J30" s="16">
+        <v>2</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="0"/>
+        <v>2.90909090909091</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="33.25" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="31" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="2:4">
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D8" si="0">C3/33</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.303030303030303</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.303030303030303</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.272727272727273</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.181818181818182</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.0303030303030303</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9/33</f>
+        <v>0.0303030303030303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/MBA/图.xlsx
+++ b/MBA/图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="24135" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>管理</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 6、考核表格内容太多，要填很久</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7、有些考核内容自评时不知道要如何分</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +927,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -933,11 +945,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3503,54 +3515,54 @@
   </cols>
   <sheetData>
     <row r="6" ht="14.25" spans="5:12">
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="E7" s="29">
+      <c r="E7" s="32">
         <v>2</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="32">
         <v>4</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="32">
         <v>5</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="32">
         <v>10</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="32">
         <v>2</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="32">
         <v>2</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="32">
         <v>2</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="32">
         <v>33</v>
       </c>
     </row>
@@ -3573,71 +3585,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="4" max="4" width="12.625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="31" customWidth="1"/>
     <col min="5" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" ht="14.25" spans="4:9">
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:9">
-      <c r="D7" s="31">
+      <c r="D7" s="34">
         <v>42856</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="4:9">
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="35">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="35">
         <f>15/33</f>
         <v>0.454545454545455</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="35">
         <f>16/33</f>
         <v>0.484848484848485</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="35">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3654,621 +3666,621 @@
   <sheetPr/>
   <dimension ref="E3:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="36" style="8" customWidth="1"/>
-    <col min="6" max="10" width="6.625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="36" style="11" customWidth="1"/>
+    <col min="6" max="10" width="6.625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="27" spans="5:11">
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="5:11">
-      <c r="E4" s="13"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="5:11">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="23">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="26">
         <f>SUM(K6:K10)/5</f>
         <v>3.0969696969697</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="5:11">
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>6</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="28">
         <f>(F6*5+G6*4+H6*3+I6*2+J6*1)/33</f>
         <v>4.15151515151515</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="5:11">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>13</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>10</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>2</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="28">
         <f>(F7*5+G7*4+H7*3+I7*2+J7*1)/33</f>
         <v>2.84848484848485</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="5:11">
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>12</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>10</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>5</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="28">
         <f>(F8*5+G8*4+H8*3+I8*2+J8*1)/33</f>
         <v>2.63636363636364</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="5:11">
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>13</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>11</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>4</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="28">
         <f>(F9*5+G9*4+H9*3+I9*2+J9*1)/33</f>
         <v>2.60606060606061</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="5:11">
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>12</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>6</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>2</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="28">
         <f>(F10*5+G10*4+H10*3+I10*2+J10*1)/33</f>
         <v>3.24242424242424</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="5:11">
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28">
         <f>SUM(K12:K15)/4</f>
         <v>3.24242424242424</v>
       </c>
     </row>
     <row r="12" ht="32" customHeight="1" spans="5:11">
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>14</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="28">
         <f>(F12*5+G12*4+H12*3+I12*2+J12*1)/33</f>
         <v>3.96969696969697</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="5:11">
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>12</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>10</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="6">
         <v>4</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="28">
         <f>(F13*5+G13*4+H13*3+I13*2+J13*1)/33</f>
         <v>2.72727272727273</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="5:11">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>12</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="28">
         <f>(F14*5+G14*4+H14*3+I14*2+J14*1)/33</f>
         <v>3.09090909090909</v>
       </c>
     </row>
     <row r="15" ht="31" customHeight="1" spans="5:11">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="6">
         <v>3</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="28">
         <f>(F15*5+G15*4+H15*3+I15*2+J15*1)/33</f>
         <v>3.18181818181818</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="5:11">
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25">
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="28">
         <f>SUM(K17:K20)/4</f>
-        <v>2.95454545454545</v>
+        <v>2.88636363636364</v>
       </c>
     </row>
     <row r="17" spans="5:11">
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="6">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="6">
         <v>15</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="6">
         <v>10</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="28">
         <f t="shared" ref="K16:K30" si="0">(F17*5+G17*4+H17*3+I17*2+J17*1)/33</f>
         <v>2.18181818181818</v>
       </c>
     </row>
     <row r="18" ht="33" customHeight="1" spans="5:11">
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="6">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>6</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>7</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <v>8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="6">
         <v>4</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="28">
         <f t="shared" si="0"/>
         <v>3.18181818181818</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:11">
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="3">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3">
-        <v>8</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
         <v>10</v>
       </c>
-      <c r="J19" s="3">
+      <c r="I19" s="6">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="28">
         <f t="shared" si="0"/>
-        <v>3.27272727272727</v>
+        <v>3.09090909090909</v>
       </c>
     </row>
     <row r="20" ht="27" spans="5:11">
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="6">
         <v>6</v>
       </c>
-      <c r="G20" s="3">
-        <v>7</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="6">
+        <v>4</v>
+      </c>
+      <c r="H20" s="6">
+        <v>12</v>
+      </c>
+      <c r="I20" s="6">
         <v>9</v>
       </c>
-      <c r="I20" s="3">
-        <v>9</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="6">
         <v>2</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="28">
         <f t="shared" si="0"/>
-        <v>3.18181818181818</v>
+        <v>3.09090909090909</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="5:11">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="28">
         <f>SUM(K22:K27)/6</f>
         <v>3.63131313131313</v>
       </c>
     </row>
     <row r="22" ht="27" spans="5:11">
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="6">
         <v>15</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="6">
         <v>14</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="6">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="28">
         <f t="shared" si="0"/>
         <v>4.24242424242424</v>
       </c>
     </row>
     <row r="23" ht="31" customHeight="1" spans="5:11">
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>14</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="6">
         <v>12</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
         <v>4</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="6">
         <v>3</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="6">
         <v>0</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="28">
         <f t="shared" si="0"/>
         <v>4.12121212121212</v>
       </c>
     </row>
     <row r="24" ht="29" customHeight="1" spans="5:11">
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="6">
         <v>4</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="6">
         <v>4</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
         <v>10</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="6">
         <v>12</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="6">
         <v>3</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="28">
         <f t="shared" si="0"/>
         <v>2.81818181818182</v>
       </c>
     </row>
     <row r="25" ht="29" customHeight="1" spans="5:11">
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="6">
         <v>16</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="6">
         <v>12</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>4</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="6">
         <v>1</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="6">
         <v>0</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="28">
         <f t="shared" si="0"/>
         <v>4.3030303030303</v>
       </c>
     </row>
     <row r="26" ht="29" customHeight="1" spans="5:11">
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="6">
         <v>6</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="6">
         <v>11</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
         <v>10</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="6">
         <v>2</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="6">
         <v>4</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="28">
         <f t="shared" si="0"/>
         <v>3.39393939393939</v>
       </c>
     </row>
     <row r="27" ht="27" spans="5:11">
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="6">
         <v>4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="6">
         <v>6</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>11</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="6">
         <v>7</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="6">
         <v>5</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="28">
         <f t="shared" si="0"/>
         <v>2.90909090909091</v>
       </c>
     </row>
     <row r="28" spans="5:11">
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="25">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="28">
         <f>SUM(K29:K30)/2</f>
         <v>2.92424242424242</v>
       </c>
     </row>
     <row r="29" ht="27" spans="5:11">
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="19">
         <v>4</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="19">
         <v>4</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="19">
         <v>13</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="19">
         <v>10</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="19">
         <v>2</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="28">
         <f t="shared" si="0"/>
         <v>2.93939393939394</v>
       </c>
     </row>
     <row r="30" ht="27" spans="5:11">
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="19">
         <v>4</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="19">
         <v>4</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="19">
         <v>12</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="19">
         <v>11</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="19">
         <v>2</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30" s="28">
         <f t="shared" si="0"/>
         <v>2.90909090909091</v>
       </c>
@@ -4320,10 +4332,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:D9"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4333,99 +4345,104 @@
     <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+    </row>
     <row r="2" ht="31" customHeight="1" spans="2:4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:4">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D8" si="0">C3/33</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0.303030303030303</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0.272727272727273</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>0.181818181818182</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0.0303030303030303</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+        <v>0.0909090909090909</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="2:4">
+      <c r="B9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
         <f>C9/33</f>
-        <v>0.0303030303030303</v>
+        <v>0.0606060606060606</v>
       </c>
     </row>
   </sheetData>

--- a/MBA/图.xlsx
+++ b/MBA/图.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="24135" windowHeight="14070" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="实施计划" sheetId="5" r:id="rId5"/>
+    <sheet name="考核表" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>管理</t>
   </si>
@@ -208,26 +210,306 @@
   </si>
   <si>
     <t xml:space="preserve"> 7、有些考核内容自评时不知道要如何分</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>事项</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>主要负责人</t>
+  </si>
+  <si>
+    <t>计划阶段</t>
+  </si>
+  <si>
+    <t>启动会</t>
+  </si>
+  <si>
+    <t>技术总监、
+人力资源主管</t>
+  </si>
+  <si>
+    <t>制定公司级的绩效目标</t>
+  </si>
+  <si>
+    <t>董事会</t>
+  </si>
+  <si>
+    <t>制定部门和个人的绩效目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+技术总监、
+人力资源主管、
+研发部门基层经理</t>
+  </si>
+  <si>
+    <t>制定实施方案</t>
+  </si>
+  <si>
+    <t>人力资源主管、
+技术总监</t>
+  </si>
+  <si>
+    <t>实施方案评审</t>
+  </si>
+  <si>
+    <t>实施启动会</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人力资源主管、
+技术总监、
+研发部门基层经理
+</t>
+  </si>
+  <si>
+    <t>准备阶段</t>
+  </si>
+  <si>
+    <t>时代光华绩效管理培训</t>
+  </si>
+  <si>
+    <t>技术总监、
+研发部门基层经理</t>
+  </si>
+  <si>
+    <t>内部绩效管理培训</t>
+  </si>
+  <si>
+    <t>新绩效体系的培训会</t>
+  </si>
+  <si>
+    <t>人力资源主管</t>
+  </si>
+  <si>
+    <t>实施阶段</t>
+  </si>
+  <si>
+    <t>年中绩效考核</t>
+  </si>
+  <si>
+    <t>年中绩效管理满意度调查</t>
+  </si>
+  <si>
+    <t>年中绩效考核总结会</t>
+  </si>
+  <si>
+    <t>第3季度绩效考核</t>
+  </si>
+  <si>
+    <t>年终绩效考核</t>
+  </si>
+  <si>
+    <t>年终绩效管理满意度调查</t>
+  </si>
+  <si>
+    <t>年终绩效考核总结会</t>
+  </si>
+  <si>
+    <t>验收阶段</t>
+  </si>
+  <si>
+    <t>整理相关材料</t>
+  </si>
+  <si>
+    <t>实施验收会</t>
+  </si>
+  <si>
+    <t>工作态度和能力（参照指标描述，在分数栏中打分，并按其分值相加计算出价评结果。）</t>
+  </si>
+  <si>
+    <t>评价项目</t>
+  </si>
+  <si>
+    <t>评价指标</t>
+  </si>
+  <si>
+    <t>指标描述</t>
+  </si>
+  <si>
+    <t>自我评价</t>
+  </si>
+  <si>
+    <t>主管评价</t>
+  </si>
+  <si>
+    <t>需求设计</t>
+  </si>
+  <si>
+    <t>能深入理解项目需求，功能设计完全满足用户需求，易用性好。文档表达清晰有条理（8－10）</t>
+  </si>
+  <si>
+    <t>（10分）</t>
+  </si>
+  <si>
+    <t>能理解项目基本需求，功能设计可以满足用户需求，文档表达清楚（8－10）</t>
+  </si>
+  <si>
+    <t>基本理解项目需求，功能设计基本满足项目要求。（1－3）</t>
+  </si>
+  <si>
+    <t>技术能力</t>
+  </si>
+  <si>
+    <t>技术能力扎实全面，对于目前工作需求尚有余力，可快速解决工作中的技术难题。（8－10）</t>
+  </si>
+  <si>
+    <t>技术能力一般，满足本工作内容，解决技术问题解决效率不高。（4－7）</t>
+  </si>
+  <si>
+    <t>不主动了解技术发展，解决技术问题困难。（1－3）</t>
+  </si>
+  <si>
+    <t>编码和技术实现</t>
+  </si>
+  <si>
+    <t>编码质量高，bug很少。技术实现方案有效评估，合理且风险小。（8－10）</t>
+  </si>
+  <si>
+    <t>编码质量较好，bug不少能够处理 。技术实现方案评估可行。</t>
+  </si>
+  <si>
+    <t>编码质量一般，bug比较多而且还有bug解决困难。技术实现方案欠评估。</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>计划和协调</t>
+  </si>
+  <si>
+    <t>计划制定全面，有效组织团队工作，遇问题能够协调资源妥善解决。（8－10）</t>
+  </si>
+  <si>
+    <t>40分</t>
+  </si>
+  <si>
+    <t>能够较好地制定计划并组织团队，遇问题可以解决，但是会影响进度或质量。（4－7）</t>
+  </si>
+  <si>
+    <t>计划制定风险考虑不足，团队工作组织不足，遇问题不能有效解决（1－3）</t>
+  </si>
+  <si>
+    <t>执行与计划完成</t>
+  </si>
+  <si>
+    <t>履行团队的开发测试流程，按照既定计划严格执行，按时完成或将项目滞后控制在10%以内。（8－10）</t>
+  </si>
+  <si>
+    <t>基本履行开发测试流程和按照计划执行，项目计划滞后控制30% （4－7）</t>
+  </si>
+  <si>
+    <t>不能完全履行开发测试流程或计划出现，项目计划超过30%（1－3）</t>
+  </si>
+  <si>
+    <t>监控和质量跟踪</t>
+  </si>
+  <si>
+    <t>项目各个阶段按流程的质量标准要求进行，项目发布后无重要bug出现。（8－10）</t>
+  </si>
+  <si>
+    <t>项目的各个阶段的质量标准并未达到，项目出现滞后或发布后有质量问题。（4－7）</t>
+  </si>
+  <si>
+    <t>项目的各个阶段的质量标准出现严重偏差，项目出现严重滞后或发布后有严重问题。（1－3）</t>
+  </si>
+  <si>
+    <t>成员管理和沟通</t>
+  </si>
+  <si>
+    <t>项目组沟通顺畅，及时有效对成员进行指导和反馈，和上级也进行充分的沟通和汇报。（8－10）</t>
+  </si>
+  <si>
+    <t>项目组沟通正常，会和成员进行适当的指导和反馈，适时向上级汇报。（4－7）</t>
+  </si>
+  <si>
+    <t>项目组沟通存在问题，和下属进行的指导和反馈比较少，很少向上级汇报。（1－3）</t>
+  </si>
+  <si>
+    <t>工</t>
+  </si>
+  <si>
+    <t>主动高效</t>
+  </si>
+  <si>
+    <t>独立提出切实可行的改进方案，并推进实施，取得良好的成效。（9－10）</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>态</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t>30分</t>
+  </si>
+  <si>
+    <t>工作中主动发现问题，提出有价值的改进建议，调动各方面资源以达成目标。（7－8）</t>
+  </si>
+  <si>
+    <t>被动执行安排的工作，遇到困难被动等待，对工作中问题视而不见。（1－3）</t>
+  </si>
+  <si>
+    <t>目标感和自我要求</t>
+  </si>
+  <si>
+    <t>目标感强，不断想办法追求目标实现，严格要求自己，不断改进 。（8-10）</t>
+  </si>
+  <si>
+    <t>目标感较强， 追求目标的实现。有自动上升的欲望。（4-7）</t>
+  </si>
+  <si>
+    <t>目标感欠缺，缺乏自我要求（1-3）</t>
+  </si>
+  <si>
+    <t>学习和分享（10分）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 主动学习，工作技能明显提高，分享并帮助团队成员进步。（8－10）</t>
+  </si>
+  <si>
+    <t>有意识地学习知识技能和业界先进经验，并在工作中实践，乐于分享。（4 - 7）</t>
+  </si>
+  <si>
+    <t>能够参加公司培训，在某些方面提高自己，有一定的分享。（1－3）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF404040"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -246,22 +528,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -282,6 +556,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -290,8 +633,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -305,85 +663,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,13 +680,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +806,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,97 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,50 +864,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -623,6 +905,170 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -644,19 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -666,6 +1099,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,10 +1127,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -718,21 +1186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -747,26 +1200,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -775,152 +1208,218 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,64 +1459,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1079,6 +1569,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3515,54 +4010,54 @@
   </cols>
   <sheetData>
     <row r="6" ht="14.25" spans="5:12">
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="5:12">
-      <c r="E7" s="32">
+      <c r="E7" s="51">
         <v>2</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="51">
         <v>4</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="51">
         <v>5</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="51">
         <v>10</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="51">
         <v>2</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="51">
         <v>2</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="51">
         <v>2</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="51">
         <v>33</v>
       </c>
     </row>
@@ -3585,71 +4080,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="4" max="4" width="12.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="23" customWidth="1"/>
     <col min="5" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" ht="14.25" spans="4:9">
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="4:9">
-      <c r="D7" s="34">
+      <c r="D7" s="53">
         <v>42856</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="4:9">
-      <c r="D8" s="35" t="s">
+    <row r="8" s="24" customFormat="1" spans="4:9">
+      <c r="D8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="54">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="54">
         <f>15/33</f>
         <v>0.454545454545455</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="54">
         <f>16/33</f>
         <v>0.484848484848485</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="54">
         <f>1/33</f>
         <v>0.0303030303030303</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="54">
         <v>1</v>
       </c>
     </row>
@@ -3666,622 +4161,622 @@
   <sheetPr/>
   <dimension ref="E3:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F19" sqref="F19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="36" style="11" customWidth="1"/>
-    <col min="6" max="10" width="6.625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="5.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36" style="33" customWidth="1"/>
+    <col min="6" max="10" width="6.625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="5.375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="27" spans="5:11">
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="42" customHeight="1" spans="5:11">
-      <c r="E4" s="16"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="5:11">
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="26">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="47">
         <f>SUM(K6:K10)/5</f>
         <v>3.0969696969697</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="5:11">
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="28">
         <v>15</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="28">
         <v>10</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="28">
         <v>6</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="28">
         <v>2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="28">
         <v>0</v>
       </c>
-      <c r="K6" s="28">
-        <f>(F6*5+G6*4+H6*3+I6*2+J6*1)/33</f>
+      <c r="K6" s="49">
+        <f t="shared" ref="K6:K10" si="0">(F6*5+G6*4+H6*3+I6*2+J6*1)/33</f>
         <v>4.15151515151515</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="5:11">
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="28">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="28">
         <v>7</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="28">
         <v>13</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="28">
         <v>10</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="28">
         <v>2</v>
       </c>
-      <c r="K7" s="28">
-        <f>(F7*5+G7*4+H7*3+I7*2+J7*1)/33</f>
+      <c r="K7" s="49">
+        <f t="shared" si="0"/>
         <v>2.84848484848485</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="5:11">
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="28">
         <v>2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="28">
         <v>4</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="28">
         <v>12</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="28">
         <v>10</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="28">
         <v>5</v>
       </c>
-      <c r="K8" s="28">
-        <f>(F8*5+G8*4+H8*3+I8*2+J8*1)/33</f>
+      <c r="K8" s="49">
+        <f t="shared" si="0"/>
         <v>2.63636363636364</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="5:11">
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="28">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="28">
         <v>4</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="28">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="28">
         <v>11</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="28">
         <v>4</v>
       </c>
-      <c r="K9" s="28">
-        <f>(F9*5+G9*4+H9*3+I9*2+J9*1)/33</f>
+      <c r="K9" s="49">
+        <f t="shared" si="0"/>
         <v>2.60606060606061</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="5:11">
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="28">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="28">
         <v>8</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="28">
         <v>12</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="28">
         <v>6</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="28">
         <v>2</v>
       </c>
-      <c r="K10" s="28">
-        <f>(F10*5+G10*4+H10*3+I10*2+J10*1)/33</f>
+      <c r="K10" s="49">
+        <f t="shared" si="0"/>
         <v>3.24242424242424</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="5:11">
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28">
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49">
         <f>SUM(K12:K15)/4</f>
         <v>3.24242424242424</v>
       </c>
     </row>
     <row r="12" ht="32" customHeight="1" spans="5:11">
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="28">
         <v>14</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="28">
         <v>10</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="28">
         <v>4</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="28">
         <v>4</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="28">
         <v>1</v>
       </c>
-      <c r="K12" s="28">
-        <f>(F12*5+G12*4+H12*3+I12*2+J12*1)/33</f>
+      <c r="K12" s="49">
+        <f t="shared" ref="K12:K15" si="1">(F12*5+G12*4+H12*3+I12*2+J12*1)/33</f>
         <v>3.96969696969697</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="5:11">
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="28">
         <v>2</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="28">
         <v>5</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="28">
         <v>12</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="28">
         <v>10</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="28">
         <v>4</v>
       </c>
-      <c r="K13" s="28">
-        <f>(F13*5+G13*4+H13*3+I13*2+J13*1)/33</f>
+      <c r="K13" s="49">
+        <f t="shared" si="1"/>
         <v>2.72727272727273</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="5:11">
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="28">
         <v>5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="28">
         <v>5</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="28">
         <v>12</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="28">
         <v>10</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="28">
         <v>1</v>
       </c>
-      <c r="K14" s="28">
-        <f>(F14*5+G14*4+H14*3+I14*2+J14*1)/33</f>
+      <c r="K14" s="49">
+        <f t="shared" si="1"/>
         <v>3.09090909090909</v>
       </c>
     </row>
     <row r="15" ht="31" customHeight="1" spans="5:11">
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="28">
         <v>8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="28">
         <v>4</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="28">
         <v>10</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="28">
         <v>8</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="28">
         <v>3</v>
       </c>
-      <c r="K15" s="28">
-        <f>(F15*5+G15*4+H15*3+I15*2+J15*1)/33</f>
+      <c r="K15" s="49">
+        <f t="shared" si="1"/>
         <v>3.18181818181818</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="5:11">
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="28">
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="49">
         <f>SUM(K17:K20)/4</f>
         <v>2.88636363636364</v>
       </c>
     </row>
     <row r="17" spans="5:11">
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="28">
         <v>2</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="28">
         <v>4</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="28">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="28">
         <v>15</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="28">
         <v>10</v>
       </c>
-      <c r="K17" s="28">
-        <f t="shared" ref="K16:K30" si="0">(F17*5+G17*4+H17*3+I17*2+J17*1)/33</f>
+      <c r="K17" s="49">
+        <f t="shared" ref="K16:K30" si="2">(F17*5+G17*4+H17*3+I17*2+J17*1)/33</f>
         <v>2.18181818181818</v>
       </c>
     </row>
     <row r="18" ht="33" customHeight="1" spans="5:11">
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="28">
         <v>8</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="28">
         <v>6</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="28">
         <v>7</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="28">
         <v>8</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="28">
         <v>4</v>
       </c>
-      <c r="K18" s="28">
-        <f t="shared" si="0"/>
+      <c r="K18" s="49">
+        <f t="shared" si="2"/>
         <v>3.18181818181818</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:11">
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="28">
         <v>5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="28">
         <v>6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="28">
         <v>10</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="28">
         <v>11</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="28">
         <v>1</v>
       </c>
-      <c r="K19" s="28">
-        <f t="shared" si="0"/>
+      <c r="K19" s="49">
+        <f t="shared" si="2"/>
         <v>3.09090909090909</v>
       </c>
     </row>
     <row r="20" ht="27" spans="5:11">
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="28">
         <v>6</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="28">
         <v>4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="28">
         <v>12</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="28">
         <v>9</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="28">
         <v>2</v>
       </c>
-      <c r="K20" s="28">
-        <f t="shared" si="0"/>
+      <c r="K20" s="49">
+        <f t="shared" si="2"/>
         <v>3.09090909090909</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1" spans="5:11">
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="28">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49">
         <f>SUM(K22:K27)/6</f>
         <v>3.63131313131313</v>
       </c>
     </row>
     <row r="22" ht="27" spans="5:11">
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="28">
         <v>15</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="28">
         <v>14</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="28">
         <v>2</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="28">
         <v>1</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="28">
         <v>1</v>
       </c>
-      <c r="K22" s="28">
-        <f t="shared" si="0"/>
+      <c r="K22" s="49">
+        <f t="shared" si="2"/>
         <v>4.24242424242424</v>
       </c>
     </row>
     <row r="23" ht="31" customHeight="1" spans="5:11">
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="28">
         <v>14</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="28">
         <v>12</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="28">
         <v>4</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="28">
         <v>3</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="28">
         <v>0</v>
       </c>
-      <c r="K23" s="28">
-        <f t="shared" si="0"/>
+      <c r="K23" s="49">
+        <f t="shared" si="2"/>
         <v>4.12121212121212</v>
       </c>
     </row>
     <row r="24" ht="29" customHeight="1" spans="5:11">
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="28">
         <v>4</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="28">
         <v>4</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="28">
         <v>10</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="28">
         <v>12</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="28">
         <v>3</v>
       </c>
-      <c r="K24" s="28">
-        <f t="shared" si="0"/>
+      <c r="K24" s="49">
+        <f t="shared" si="2"/>
         <v>2.81818181818182</v>
       </c>
     </row>
     <row r="25" ht="29" customHeight="1" spans="5:11">
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="28">
         <v>16</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="28">
         <v>12</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="28">
         <v>4</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="28">
         <v>1</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="28">
         <v>0</v>
       </c>
-      <c r="K25" s="28">
-        <f t="shared" si="0"/>
+      <c r="K25" s="49">
+        <f t="shared" si="2"/>
         <v>4.3030303030303</v>
       </c>
     </row>
     <row r="26" ht="29" customHeight="1" spans="5:11">
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="28">
         <v>6</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="28">
         <v>11</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="28">
         <v>10</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="28">
         <v>2</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="28">
         <v>4</v>
       </c>
-      <c r="K26" s="28">
-        <f t="shared" si="0"/>
+      <c r="K26" s="49">
+        <f t="shared" si="2"/>
         <v>3.39393939393939</v>
       </c>
     </row>
     <row r="27" ht="27" spans="5:11">
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="28">
         <v>4</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="28">
         <v>6</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="28">
         <v>11</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="28">
         <v>7</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="28">
         <v>5</v>
       </c>
-      <c r="K27" s="28">
-        <f t="shared" si="0"/>
+      <c r="K27" s="49">
+        <f t="shared" si="2"/>
         <v>2.90909090909091</v>
       </c>
     </row>
     <row r="28" spans="5:11">
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="28">
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="49">
         <f>SUM(K29:K30)/2</f>
         <v>2.92424242424242</v>
       </c>
     </row>
     <row r="29" ht="27" spans="5:11">
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="41">
         <v>4</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="41">
         <v>4</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="41">
         <v>13</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="41">
         <v>10</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="41">
         <v>2</v>
       </c>
-      <c r="K29" s="28">
-        <f t="shared" si="0"/>
+      <c r="K29" s="49">
+        <f t="shared" si="2"/>
         <v>2.93939393939394</v>
       </c>
     </row>
     <row r="30" ht="27" spans="5:11">
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="41">
         <v>4</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="41">
         <v>4</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="41">
         <v>12</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="41">
         <v>11</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="41">
         <v>2</v>
       </c>
-      <c r="K30" s="28">
-        <f t="shared" si="0"/>
+      <c r="K30" s="49">
+        <f t="shared" si="2"/>
         <v>2.90909090909091</v>
       </c>
     </row>
@@ -4341,107 +4836,107 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="2:4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:4">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="28">
         <v>11</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D8" si="0">C3/33</f>
+      <c r="D3" s="29">
+        <f t="shared" ref="D3:D9" si="0">C3/33</f>
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="28">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="29">
         <f t="shared" si="0"/>
         <v>0.303030303030303</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="29">
         <f t="shared" si="0"/>
         <v>0.303030303030303</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="28">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="29">
         <f t="shared" si="0"/>
         <v>0.272727272727273</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="28">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="29">
         <f t="shared" si="0"/>
         <v>0.181818181818182</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="32">
         <v>3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="29">
         <f t="shared" si="0"/>
         <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="9" ht="27" spans="2:4">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="32">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <f>C9/33</f>
+      <c r="D9" s="29">
+        <f t="shared" si="0"/>
         <v>0.0606060606060606</v>
       </c>
     </row>
@@ -4449,4 +4944,878 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="8.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" ht="20" customHeight="1" spans="3:7">
+      <c r="C2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="3:7">
+      <c r="C3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="15">
+        <v>42738</v>
+      </c>
+      <c r="F3" s="15">
+        <v>42738</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="17"/>
+      <c r="D4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="15">
+        <v>42739</v>
+      </c>
+      <c r="F4" s="15">
+        <v>42744</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="3:7">
+      <c r="C5" s="17"/>
+      <c r="D5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="15">
+        <v>42745</v>
+      </c>
+      <c r="F5" s="15">
+        <v>42751</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="3:7">
+      <c r="C6" s="17"/>
+      <c r="D6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="15">
+        <v>42745</v>
+      </c>
+      <c r="F6" s="15">
+        <v>42751</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="17"/>
+      <c r="D7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="15">
+        <v>42752</v>
+      </c>
+      <c r="F7" s="15">
+        <v>42752</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="3:7">
+      <c r="C8" s="18"/>
+      <c r="D8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="15">
+        <v>42753</v>
+      </c>
+      <c r="F8" s="15">
+        <v>42753</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="3:7">
+      <c r="C9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="15">
+        <v>42774</v>
+      </c>
+      <c r="F9" s="15">
+        <v>42776</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="3:7">
+      <c r="C10" s="17"/>
+      <c r="D10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="15">
+        <v>42779</v>
+      </c>
+      <c r="F10" s="15">
+        <v>42783</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="17"/>
+      <c r="D11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="15">
+        <v>42786</v>
+      </c>
+      <c r="F11" s="15">
+        <v>42786</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="3:7">
+      <c r="C12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="15">
+        <v>42912</v>
+      </c>
+      <c r="F12" s="15">
+        <v>42916</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="3:7">
+      <c r="C13" s="17"/>
+      <c r="D13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="15">
+        <v>42919</v>
+      </c>
+      <c r="F13" s="15">
+        <v>42921</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" ht="40" customHeight="1" spans="3:7">
+      <c r="C14" s="17"/>
+      <c r="D14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="15">
+        <v>42922</v>
+      </c>
+      <c r="F14" s="15">
+        <v>42922</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="3:7">
+      <c r="C15" s="17"/>
+      <c r="D15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="15">
+        <v>43017</v>
+      </c>
+      <c r="F15" s="15">
+        <v>43019</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" ht="47" customHeight="1" spans="3:7">
+      <c r="C16" s="17"/>
+      <c r="D16" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="15">
+        <v>43122</v>
+      </c>
+      <c r="F16" s="15">
+        <v>43126</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="3:7">
+      <c r="C17" s="17"/>
+      <c r="D17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="15">
+        <v>42764</v>
+      </c>
+      <c r="F17" s="15">
+        <v>42766</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="3:7">
+      <c r="C18" s="18"/>
+      <c r="D18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="15">
+        <v>43132</v>
+      </c>
+      <c r="F18" s="15">
+        <v>43132</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="15">
+        <v>43133</v>
+      </c>
+      <c r="F19" s="15">
+        <v>43137</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="3:7">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="21">
+        <v>42773</v>
+      </c>
+      <c r="F20" s="21">
+        <v>42773</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="C19:C20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C1:G56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1"/>
+    <row r="3" customHeight="1"/>
+    <row r="5" ht="14.25" spans="3:7">
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="3:7">
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="3:7">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" spans="3:7">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:7">
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="3:7">
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="3:7">
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" ht="14.25" spans="3:7">
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" ht="99.75" spans="3:7">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" ht="85.5" spans="3:7">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" ht="114" customHeight="1" spans="3:7">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" ht="14.25" spans="3:7">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" ht="99.75" spans="3:7">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" ht="71.25" spans="3:7">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" ht="85.5" customHeight="1" spans="3:7">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" ht="14.25" spans="3:7">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" ht="85.5" spans="3:7">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" ht="99.75" spans="3:7">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" ht="14.25" spans="3:7">
+      <c r="C23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1" spans="3:7">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="14.25" spans="3:7">
+      <c r="C25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="114" spans="3:7">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="99.75" spans="3:7">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" ht="128.25" customHeight="1" spans="3:7">
+      <c r="C28" s="5"/>
+      <c r="D28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" ht="14.25" spans="3:7">
+      <c r="C29" s="5"/>
+      <c r="D29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" ht="99.75" spans="3:7">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" ht="99.75" spans="3:7">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" ht="99.75" customHeight="1" spans="3:7">
+      <c r="C32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" ht="14.25" spans="3:7">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" ht="114" spans="3:7">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" ht="128.25" spans="3:7">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" ht="114.75" customHeight="1" spans="3:7">
+      <c r="C36" s="3"/>
+      <c r="D36" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" ht="14.25" spans="3:7">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" ht="99.75" spans="3:7">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" ht="114" spans="3:7">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" ht="14.25" spans="3:7">
+      <c r="C40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" ht="14.25" spans="3:7">
+      <c r="C41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" ht="14.25" spans="3:7">
+      <c r="C42" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" ht="14.25" spans="3:7">
+      <c r="C43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="3:7">
+      <c r="C44" s="3"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" ht="14.25" spans="3:7">
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" ht="114" spans="3:7">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" ht="99.75" spans="3:7">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" ht="28.5" spans="3:7">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" ht="14.25" spans="3:7">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" ht="87" customHeight="1" spans="3:7">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" ht="57" spans="3:7">
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" ht="99.75" spans="3:7">
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" ht="114" spans="3:7">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" ht="85.5" spans="3:7">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F7:F12"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="G48:G49"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>